--- a/src/test/resources/test-file/test-read.xlsx
+++ b/src/test/resources/test-file/test-read.xlsx
@@ -641,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,93 +761,101 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I7" s="6">
         <v>42736</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J7" s="7">
         <v>42736</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/test-file/test-read.xlsx
+++ b/src/test/resources/test-file/test-read.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="39">
   <si>
     <t>Map 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,21 +841,581 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+    <row r="8" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J8" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+    <row r="9" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J9" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J10" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J11" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J12" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J13" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J14" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6">
+        <v>42736</v>
+      </c>
+      <c r="J15" s="7">
+        <v>42736</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/test-file/test-read.xlsx
+++ b/src/test/resources/test-file/test-read.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1960" windowWidth="46240" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="4960" yWindow="3680" windowWidth="46240" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +677,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/src/test/resources/test-file/test-read.xlsx
+++ b/src/test/resources/test-file/test-read.xlsx
@@ -644,10 +644,10 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/test-file/test-read.xlsx
+++ b/src/test/resources/test-file/test-read.xlsx
@@ -644,10 +644,10 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/test-file/test-read.xlsx
+++ b/src/test/resources/test-file/test-read.xlsx
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text Two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +180,10 @@
   </si>
   <si>
     <t>LocalDate null 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text (2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +647,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,66 +678,66 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>3</v>
@@ -749,16 +749,16 @@
         <v>5</v>
       </c>
       <c r="W2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -771,28 +771,28 @@
     </row>
     <row r="7" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="6">
         <v>42736</v>
@@ -802,16 +802,16 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>0</v>
@@ -829,42 +829,42 @@
         <v>3</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="6">
         <v>42736</v>
@@ -874,16 +874,16 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>0</v>
@@ -901,42 +901,42 @@
         <v>3</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="6">
         <v>42736</v>
@@ -946,16 +946,16 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>0</v>
@@ -973,42 +973,42 @@
         <v>3</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="6">
         <v>42736</v>
@@ -1018,16 +1018,16 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>0</v>
@@ -1045,42 +1045,42 @@
         <v>3</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="6">
         <v>42736</v>
@@ -1090,16 +1090,16 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>0</v>
@@ -1117,42 +1117,42 @@
         <v>3</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="6">
         <v>42736</v>
@@ -1162,16 +1162,16 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>0</v>
@@ -1189,42 +1189,42 @@
         <v>3</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="6">
         <v>42736</v>
@@ -1234,16 +1234,16 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>0</v>
@@ -1261,42 +1261,42 @@
         <v>3</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6">
         <v>42736</v>
@@ -1306,16 +1306,16 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>0</v>
@@ -1333,42 +1333,42 @@
         <v>3</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="6">
         <v>42736</v>
@@ -1378,16 +1378,16 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>0</v>
@@ -1405,16 +1405,16 @@
         <v>3</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
